--- a/docs/componentes/Plano_de_Habitaciones.xlsx
+++ b/docs/componentes/Plano_de_Habitaciones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaniyDiego\www\componentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaniyDiegoWeb\docs\componentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
   <si>
     <t>BW 31 A</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>--- &gt;</t>
+  </si>
+  <si>
+    <t>BW 36</t>
   </si>
 </sst>
 </file>
@@ -553,9 +556,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,9 +567,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -585,9 +582,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,26 +591,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -625,9 +607,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -644,6 +623,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10906,7 +10909,7 @@
   <dimension ref="B1:AJ61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="N13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18:Q20"/>
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11067,7 +11070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -11075,13 +11078,15 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="V20" s="1"/>
+      <c r="V20" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.25">
@@ -11090,21 +11095,21 @@
       <c r="F21" s="1"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="V21" s="7"/>
+      <c r="V21" s="11"/>
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="V22" s="7"/>
+      <c r="V22" s="12"/>
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="V23" s="7"/>
+      <c r="V23" s="13"/>
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11328,16 +11333,16 @@
       <c r="Z33" s="23"/>
       <c r="AA33" s="23"/>
       <c r="AB33" s="25"/>
-      <c r="AC33" s="26" t="s">
+      <c r="AC33" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="AD33" s="26" t="s">
+      <c r="AD33" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="AE33" s="26" t="s">
+      <c r="AE33" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="AF33" s="26" t="s">
+      <c r="AF33" s="59" t="s">
         <v>37</v>
       </c>
       <c r="AG33" s="5"/>
@@ -11349,22 +11354,22 @@
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="27"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="28" t="s">
+      <c r="H34" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I34" s="28" t="s">
+      <c r="I34" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="J34" s="29" t="s">
+      <c r="J34" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="K34" s="29" t="s">
+      <c r="K34" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="L34" s="29" t="s">
+      <c r="L34" s="28" t="s">
         <v>36</v>
       </c>
       <c r="M34" s="7"/>
@@ -11379,20 +11384,20 @@
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
-      <c r="Y34" s="30" t="s">
+      <c r="Y34" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="Z34" s="30" t="s">
+      <c r="Z34" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AA34" s="30" t="s">
+      <c r="AA34" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="32"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+      <c r="AF34" s="60"/>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
@@ -11408,26 +11413,26 @@
       <c r="D35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="31" t="s">
         <v>41</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="34" t="s">
+      <c r="G35" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H35" s="35" t="s">
+      <c r="H35" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="36" t="s">
+      <c r="I35" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="J35" s="36" t="s">
+      <c r="J35" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="K35" s="36" t="s">
+      <c r="K35" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="L35" s="36" t="s">
+      <c r="L35" s="34" t="s">
         <v>47</v>
       </c>
       <c r="M35" s="7"/>
@@ -11436,30 +11441,30 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
-      <c r="S35" s="34" t="s">
+      <c r="S35" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="T35" s="34" t="s">
+      <c r="T35" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="U35" s="31"/>
-      <c r="V35" s="34" t="s">
+      <c r="U35" s="30"/>
+      <c r="V35" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="W35" s="31"/>
-      <c r="X35" s="34" t="s">
+      <c r="W35" s="30"/>
+      <c r="X35" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="Y35" s="34" t="s">
+      <c r="Y35" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="Z35" s="34" t="s">
+      <c r="Z35" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="AA35" s="34" t="s">
+      <c r="AA35" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="AB35" s="34" t="s">
+      <c r="AB35" s="32" t="s">
         <v>55</v>
       </c>
       <c r="AC35" s="21" t="s">
@@ -11480,74 +11485,74 @@
       <c r="AJ35" s="7"/>
     </row>
     <row r="36" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="37"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="40" t="s">
+      <c r="G36" s="36"/>
+      <c r="H36" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I36" s="41"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
       <c r="U36" s="7"/>
-      <c r="V36" s="38"/>
+      <c r="V36" s="36"/>
       <c r="W36" s="7"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="43"/>
-      <c r="AB36" s="43"/>
-      <c r="AC36" s="44" t="s">
+      <c r="X36" s="36"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="40"/>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="AD36" s="44" t="s">
+      <c r="AD36" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="AE36" s="44" t="s">
+      <c r="AE36" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="AF36" s="44" t="s">
+      <c r="AF36" s="64" t="s">
         <v>60</v>
       </c>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
-      <c r="AJ36" s="45"/>
+      <c r="AJ36" s="41"/>
     </row>
     <row r="37" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="37"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="H37" s="46"/>
-      <c r="I37" s="41" t="s">
+      <c r="H37" s="62"/>
+      <c r="I37" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="47" t="s">
+      <c r="J37" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="K37" s="47" t="s">
+      <c r="K37" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="L37" s="47" t="s">
+      <c r="L37" s="42" t="s">
         <v>36</v>
       </c>
       <c r="M37" s="5"/>
@@ -11556,120 +11561,120 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
       <c r="U37" s="7"/>
-      <c r="V37" s="38"/>
+      <c r="V37" s="36"/>
       <c r="W37" s="7"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="42" t="s">
+      <c r="X37" s="36"/>
+      <c r="Y37" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Z37" s="48" t="s">
+      <c r="Z37" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AA37" s="48" t="s">
+      <c r="AA37" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="49"/>
-      <c r="AD37" s="49"/>
-      <c r="AE37" s="49"/>
-      <c r="AF37" s="49"/>
+      <c r="AB37" s="43"/>
+      <c r="AC37" s="65"/>
+      <c r="AD37" s="65"/>
+      <c r="AE37" s="65"/>
+      <c r="AF37" s="65"/>
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
-      <c r="AJ37" s="38"/>
+      <c r="AJ37" s="36"/>
     </row>
     <row r="38" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="37" t="s">
         <v>36</v>
       </c>
       <c r="F38" s="7"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="52" t="s">
+      <c r="G38" s="36"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
       <c r="U38" s="7"/>
-      <c r="V38" s="38"/>
+      <c r="V38" s="36"/>
       <c r="W38" s="7"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="54"/>
-      <c r="AC38" s="55"/>
-      <c r="AD38" s="55"/>
-      <c r="AE38" s="55"/>
-      <c r="AF38" s="55"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="66"/>
+      <c r="AD38" s="66"/>
+      <c r="AE38" s="66"/>
+      <c r="AF38" s="66"/>
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
       <c r="AI38" s="5"/>
       <c r="AJ38" s="13"/>
     </row>
     <row r="39" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="38"/>
-      <c r="C39" s="56" t="s">
+      <c r="B39" s="36"/>
+      <c r="C39" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="39"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="43" t="s">
+      <c r="G39" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
-      <c r="S39" s="48" t="s">
+      <c r="S39" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="T39" s="48" t="s">
+      <c r="T39" s="43" t="s">
         <v>36</v>
       </c>
       <c r="U39" s="7"/>
-      <c r="V39" s="58" t="s">
+      <c r="V39" s="50" t="s">
         <v>36</v>
       </c>
       <c r="W39" s="7"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="59"/>
-      <c r="AF39" s="59"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AE39" s="51"/>
+      <c r="AF39" s="51"/>
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
@@ -11679,9 +11684,9 @@
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="33"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="38" t="s">
+      <c r="G40" s="36" t="s">
         <v>36</v>
       </c>
       <c r="H40" s="7"/>
@@ -11695,24 +11700,24 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
       <c r="U40" s="7"/>
-      <c r="V40" s="38"/>
+      <c r="V40" s="36"/>
       <c r="W40" s="7"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="31"/>
-      <c r="AD40" s="31"/>
-      <c r="AE40" s="31"/>
-      <c r="AF40" s="31"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="30"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="30"/>
+      <c r="AE40" s="30"/>
+      <c r="AF40" s="30"/>
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
-      <c r="AJ40" s="31" t="s">
+      <c r="AJ40" s="30" t="s">
         <v>61</v>
       </c>
     </row>
@@ -11722,7 +11727,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="38"/>
+      <c r="G41" s="36"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -11734,12 +11739,12 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
       <c r="U41" s="7"/>
-      <c r="V41" s="38"/>
+      <c r="V41" s="36"/>
       <c r="W41" s="7"/>
-      <c r="X41" s="38"/>
+      <c r="X41" s="36"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
@@ -11759,7 +11764,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="38"/>
+      <c r="G42" s="36"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -11771,12 +11776,12 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
       <c r="U42" s="7"/>
-      <c r="V42" s="38"/>
+      <c r="V42" s="36"/>
       <c r="W42" s="7"/>
-      <c r="X42" s="38"/>
+      <c r="X42" s="36"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
@@ -11796,7 +11801,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="60"/>
+      <c r="G43" s="52"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -11808,12 +11813,12 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
-      <c r="S43" s="60"/>
-      <c r="T43" s="60"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="52"/>
       <c r="U43" s="7"/>
-      <c r="V43" s="60"/>
+      <c r="V43" s="52"/>
       <c r="W43" s="7"/>
-      <c r="X43" s="60"/>
+      <c r="X43" s="52"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
@@ -11845,12 +11850,12 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
       <c r="U44" s="7"/>
-      <c r="V44" s="31"/>
+      <c r="V44" s="30"/>
       <c r="W44" s="7"/>
-      <c r="X44" s="31"/>
+      <c r="X44" s="30"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
@@ -11865,17 +11870,17 @@
       <c r="AJ44" s="5"/>
     </row>
     <row r="45" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="61"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
       <c r="M45" s="7"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
@@ -11884,18 +11889,18 @@
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
-      <c r="U45" s="61"/>
+      <c r="U45" s="53"/>
       <c r="V45" s="5"/>
-      <c r="W45" s="61"/>
+      <c r="W45" s="53"/>
       <c r="X45" s="5"/>
-      <c r="Y45" s="61"/>
-      <c r="Z45" s="61"/>
-      <c r="AA45" s="61"/>
-      <c r="AB45" s="61"/>
-      <c r="AC45" s="61"/>
-      <c r="AD45" s="61"/>
-      <c r="AE45" s="61"/>
-      <c r="AF45" s="61"/>
+      <c r="Y45" s="53"/>
+      <c r="Z45" s="53"/>
+      <c r="AA45" s="53"/>
+      <c r="AB45" s="53"/>
+      <c r="AC45" s="53"/>
+      <c r="AD45" s="53"/>
+      <c r="AE45" s="53"/>
+      <c r="AF45" s="53"/>
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
       <c r="AI45" s="5"/>
@@ -11921,15 +11926,15 @@
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="31"/>
+      <c r="U46" s="30"/>
       <c r="V46" s="5"/>
-      <c r="W46" s="31"/>
+      <c r="W46" s="30"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
-      <c r="AC46" s="62"/>
+      <c r="AC46" s="54"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7"/>
       <c r="AF46" s="7"/>
@@ -12032,7 +12037,7 @@
       <c r="AF49" s="1"/>
     </row>
     <row r="53" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="Y53" s="63" t="s">
+      <c r="Y53" s="55" t="s">
         <v>36</v>
       </c>
       <c r="Z53" t="s">
@@ -12046,42 +12051,42 @@
       </c>
     </row>
     <row r="61" spans="2:35" ht="45" x14ac:dyDescent="0.6">
-      <c r="B61" s="64" t="s">
+      <c r="B61" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="64" t="s">
+      <c r="C61" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="L61" s="65" t="s">
+      <c r="L61" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="M61" s="65"/>
-      <c r="N61" s="65" t="s">
+      <c r="M61" s="57"/>
+      <c r="N61" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="O61" s="65"/>
-      <c r="P61" s="65" t="s">
+      <c r="O61" s="57"/>
+      <c r="P61" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="Q61" s="65"/>
-      <c r="R61" s="65" t="s">
+      <c r="Q61" s="57"/>
+      <c r="R61" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="S61" s="65"/>
-      <c r="T61" s="65" t="s">
+      <c r="S61" s="57"/>
+      <c r="T61" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="AC61" s="64" t="s">
+      <c r="AC61" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="AD61" s="64"/>
-      <c r="AE61" s="64"/>
-      <c r="AF61" s="64"/>
-      <c r="AG61" s="66" t="s">
+      <c r="AD61" s="56"/>
+      <c r="AE61" s="56"/>
+      <c r="AF61" s="56"/>
+      <c r="AG61" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="AH61" s="66"/>
-      <c r="AI61" s="66"/>
+      <c r="AH61" s="58"/>
+      <c r="AI61" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="9">
